--- a/BkVina note.xlsx
+++ b/BkVina note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="15540" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Máy 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="415">
   <si>
     <t>INPUT</t>
   </si>
@@ -702,154 +702,292 @@
     <t>RUN2N</t>
   </si>
   <si>
+    <t>C251</t>
+  </si>
+  <si>
     <t>MXC-A-</t>
   </si>
   <si>
-    <t>MXC-F1</t>
+    <t>MXCF1</t>
+  </si>
+  <si>
+    <t>MXC_PLS</t>
   </si>
   <si>
     <t>MXC-B-</t>
   </si>
   <si>
-    <t>MXC-E1</t>
-  </si>
-  <si>
-    <t>MXC-D1</t>
+    <t>MXCE1</t>
+  </si>
+  <si>
+    <t>MQ_PLS</t>
+  </si>
+  <si>
+    <t>M8052</t>
+  </si>
+  <si>
+    <t>MXCD1</t>
+  </si>
+  <si>
+    <t>MXDT_PLS</t>
+  </si>
+  <si>
+    <t>M8053</t>
+  </si>
+  <si>
+    <t>MXDP_PLS</t>
+  </si>
+  <si>
+    <t>M8054</t>
+  </si>
+  <si>
+    <t>MXC_DIR</t>
+  </si>
+  <si>
+    <t>M8055</t>
+  </si>
+  <si>
+    <t>MQ_DIR</t>
+  </si>
+  <si>
+    <t>HMI PI3102i</t>
+  </si>
+  <si>
+    <t>C244</t>
+  </si>
+  <si>
+    <t>MXDT-A-</t>
+  </si>
+  <si>
+    <t>MXDT_DIR</t>
+  </si>
+  <si>
+    <t>Đèn báo pha xW1P-1EQM3R</t>
+  </si>
+  <si>
+    <t>C245</t>
+  </si>
+  <si>
+    <t>MXDP-A-</t>
+  </si>
+  <si>
+    <t>MXDP_DIR</t>
+  </si>
+  <si>
+    <t>MXC-1</t>
+  </si>
+  <si>
+    <t>Nút dừng khẩn YW1BV4E11R</t>
+  </si>
+  <si>
+    <t>MXC-2</t>
+  </si>
+  <si>
+    <t>Nút nhấn reset có đèn MF2E11Q4</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
   </si>
   <si>
     <t>OPERAGE</t>
   </si>
   <si>
-    <t>HMI PI3102i</t>
-  </si>
-  <si>
-    <t>MXDT-A-</t>
-  </si>
-  <si>
-    <t>Đèn báo pha xW1P-1EQM3R</t>
-  </si>
-  <si>
-    <t>MXDP-A-</t>
+    <t>MQ-1</t>
+  </si>
+  <si>
+    <t>Nút nhấn right/left có đèn MF2E11Q4</t>
+  </si>
+  <si>
+    <t>RelayXLKC1</t>
+  </si>
+  <si>
+    <t>MQ-2</t>
+  </si>
+  <si>
+    <t>Nút nhấn start/stop bơm dầu có đèn MF2E11Q5</t>
+  </si>
+  <si>
+    <t>RelayXLC2</t>
+  </si>
+  <si>
+    <t>MXDT-1</t>
+  </si>
+  <si>
+    <t>RelayXLD3_1</t>
   </si>
   <si>
     <t>XLD3-1</t>
   </si>
   <si>
-    <t>Nút dừng khẩn YW1BV4E11R</t>
+    <t>MXDT-2</t>
+  </si>
+  <si>
+    <t>RelayXLD3_2</t>
   </si>
   <si>
     <t>XLD3-2</t>
   </si>
   <si>
-    <t>Nút nhấn reset có đèn MF2E11Q4</t>
+    <t>MXDP-1</t>
+  </si>
+  <si>
+    <t>RelayXLX4_1</t>
   </si>
   <si>
     <t>XLX4-1</t>
   </si>
   <si>
-    <t>Nút nhấn right/left có đèn MF2E11Q4</t>
+    <t>MXDP-2</t>
+  </si>
+  <si>
+    <t>RelayXLX4_2</t>
   </si>
   <si>
     <t>XLX4-2</t>
   </si>
   <si>
-    <t>Nút nhấn start/stop bơm dầu có đèn MF2E11Q5</t>
+    <t>ON/OFF P</t>
+  </si>
+  <si>
+    <t>Y20</t>
+  </si>
+  <si>
+    <t>RelayXLX5_1</t>
   </si>
   <si>
     <t>XLX5-1</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>RelayXLX5_2</t>
+  </si>
+  <si>
     <t>XLX5-2</t>
   </si>
   <si>
+    <t>xilanh in</t>
+  </si>
+  <si>
+    <t>RelayXLD6_1</t>
+  </si>
+  <si>
     <t>XLD6-1</t>
   </si>
   <si>
+    <t>encoder</t>
+  </si>
+  <si>
+    <t>RelayXLD6_2</t>
+  </si>
+  <si>
     <t>XLD6-2</t>
   </si>
   <si>
+    <t>pickup</t>
+  </si>
+  <si>
+    <t>RelayXLTT</t>
+  </si>
+  <si>
     <t>XLTT</t>
   </si>
   <si>
-    <t>ON/OFF P</t>
-  </si>
-  <si>
-    <t>Y20</t>
+    <t>24v</t>
+  </si>
+  <si>
+    <t>RelayXLTP</t>
   </si>
   <si>
     <t>XLTP</t>
   </si>
   <si>
+    <t>RelayXLDT</t>
+  </si>
+  <si>
+    <t>XLDT</t>
+  </si>
+  <si>
+    <t>RelayXLDP</t>
+  </si>
+  <si>
+    <t>XLDP</t>
+  </si>
+  <si>
+    <t>RelayXLKDT</t>
+  </si>
+  <si>
     <t>XLKDT</t>
   </si>
   <si>
+    <t>RelayXLKDP</t>
+  </si>
+  <si>
     <t>XLKDP</t>
   </si>
   <si>
-    <t>XLDT</t>
-  </si>
-  <si>
-    <t>XLDP</t>
+    <t>RelayTT</t>
+  </si>
+  <si>
+    <t>RelayMR_1</t>
   </si>
   <si>
     <t>MR-1</t>
   </si>
   <si>
+    <t>RelayMR_2</t>
+  </si>
+  <si>
     <t>MR-2</t>
   </si>
   <si>
-    <t>MXC-1</t>
-  </si>
-  <si>
-    <t>MXC-2</t>
-  </si>
-  <si>
-    <t>MQ-1</t>
-  </si>
-  <si>
-    <t>MQ-2</t>
-  </si>
-  <si>
-    <t>MXDT-1</t>
-  </si>
-  <si>
     <t>X35</t>
   </si>
   <si>
-    <t>XLTT-I</t>
-  </si>
-  <si>
-    <t>MXDT-2</t>
+    <t>XLTT-O</t>
+  </si>
+  <si>
+    <t>RelayMXC_1</t>
+  </si>
+  <si>
+    <t>Oil pump</t>
   </si>
   <si>
     <t>X36</t>
   </si>
   <si>
-    <t>XLTP-I</t>
-  </si>
-  <si>
-    <t>MXDP-1</t>
+    <t>XLTP-O</t>
+  </si>
+  <si>
+    <t>RelayMXC_2</t>
+  </si>
+  <si>
+    <t>oil valve</t>
+  </si>
+  <si>
+    <t>cái máy đang làm này tốc độ chạy của mấy cụm xoắn phụ thuộc vào áp lực dầu, a ghĩ nên dùng 1 cụm valve ổn áp</t>
   </si>
   <si>
     <t>X37</t>
   </si>
   <si>
-    <t>XLKDT-I</t>
-  </si>
-  <si>
-    <t>MXDP-2</t>
+    <t>XLKDT-O</t>
+  </si>
+  <si>
+    <t>RelayMQ_1</t>
   </si>
   <si>
     <t>X40</t>
   </si>
   <si>
-    <t>XLKDP-I</t>
+    <t>XLKDP-O</t>
   </si>
   <si>
     <t>Y40</t>
   </si>
   <si>
-    <t>Oil pump</t>
+    <t>RelayMQ_2</t>
   </si>
   <si>
     <t>X41</t>
@@ -861,7 +999,7 @@
     <t>Y41</t>
   </si>
   <si>
-    <t>oil valve</t>
+    <t>RelayMXDT_1</t>
   </si>
   <si>
     <t>X42</t>
@@ -873,6 +1011,9 @@
     <t>Y42</t>
   </si>
   <si>
+    <t>RelayMXDT_2</t>
+  </si>
+  <si>
     <t>X43</t>
   </si>
   <si>
@@ -882,6 +1023,9 @@
     <t>Y43</t>
   </si>
   <si>
+    <t>RelayMXDP_1</t>
+  </si>
+  <si>
     <t>X44</t>
   </si>
   <si>
@@ -891,27 +1035,51 @@
     <t>Y44</t>
   </si>
   <si>
+    <t>RelayMXDP_2</t>
+  </si>
+  <si>
     <t>X45</t>
   </si>
   <si>
+    <t>OLPump</t>
+  </si>
+  <si>
     <t>Y45</t>
   </si>
   <si>
+    <t>RelayOilP</t>
+  </si>
+  <si>
     <t>X46</t>
   </si>
   <si>
+    <t>MR_L1</t>
+  </si>
+  <si>
     <t>Y46</t>
   </si>
   <si>
+    <t>RelayOilV1</t>
+  </si>
+  <si>
     <t>X47</t>
   </si>
   <si>
+    <t>MR_R1</t>
+  </si>
+  <si>
     <t>Y47</t>
   </si>
   <si>
+    <t>RelayOilV2</t>
+  </si>
+  <si>
     <t>A-</t>
   </si>
   <si>
+    <t>FX2N-1HC</t>
+  </si>
+  <si>
     <t>MQ-A-</t>
   </si>
   <si>
@@ -921,15 +1089,12 @@
     <t>MQ-B-</t>
   </si>
   <si>
-    <t>VAR_GLOBAL</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
     <t>Z-</t>
   </si>
   <si>
+    <t>MQ-Z-</t>
+  </si>
+  <si>
     <t>SGMAH</t>
   </si>
   <si>
@@ -948,6 +1113,15 @@
     <t>Standard</t>
   </si>
   <si>
+    <t>(X000 to X007)</t>
+  </si>
+  <si>
+    <t>M8170 to M8177 ngắt cho (X000 to X007) set Home</t>
+  </si>
+  <si>
+    <t>trang 820 / 966 set high speed counter to interrupt</t>
+  </si>
+  <si>
     <t>MXDT-EA</t>
   </si>
   <si>
@@ -963,22 +1137,130 @@
     <t>MXDT-EB</t>
   </si>
   <si>
-    <t>encoder</t>
-  </si>
-  <si>
     <t>MXDP-EA</t>
   </si>
   <si>
     <t>proximity</t>
   </si>
   <si>
+    <t>d600</t>
+  </si>
+  <si>
+    <t>d250</t>
+  </si>
+  <si>
     <t>MXDP-EB</t>
   </si>
   <si>
     <t>xilanh limit</t>
   </si>
   <si>
+    <t>d602</t>
+  </si>
+  <si>
+    <t>d252</t>
+  </si>
+  <si>
     <t>relay out</t>
+  </si>
+  <si>
+    <t>d604</t>
+  </si>
+  <si>
+    <t>d254</t>
+  </si>
+  <si>
+    <t>d606</t>
+  </si>
+  <si>
+    <t>d256</t>
+  </si>
+  <si>
+    <t>d608</t>
+  </si>
+  <si>
+    <t>d258</t>
+  </si>
+  <si>
+    <t>d610</t>
+  </si>
+  <si>
+    <t>d260</t>
+  </si>
+  <si>
+    <t>d612</t>
+  </si>
+  <si>
+    <t>d262</t>
+  </si>
+  <si>
+    <t>d614</t>
+  </si>
+  <si>
+    <t>d264</t>
+  </si>
+  <si>
+    <t>d616</t>
+  </si>
+  <si>
+    <t>d266</t>
+  </si>
+  <si>
+    <t>d618</t>
+  </si>
+  <si>
+    <t>d268</t>
+  </si>
+  <si>
+    <t>d620</t>
+  </si>
+  <si>
+    <t>d270</t>
+  </si>
+  <si>
+    <t>d622</t>
+  </si>
+  <si>
+    <t>d272</t>
+  </si>
+  <si>
+    <t>d624</t>
+  </si>
+  <si>
+    <t>d274</t>
+  </si>
+  <si>
+    <t>d626</t>
+  </si>
+  <si>
+    <t>d628</t>
+  </si>
+  <si>
+    <t>d630</t>
+  </si>
+  <si>
+    <t>d632</t>
+  </si>
+  <si>
+    <t>d634</t>
+  </si>
+  <si>
+    <t>d636</t>
+  </si>
+  <si>
+    <t>d638</t>
+  </si>
+  <si>
+    <t>d640</t>
+  </si>
+  <si>
+    <t>d642</t>
+  </si>
+  <si>
+    <t>d644</t>
+  </si>
+  <si>
+    <t>d646</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1273,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,14 +1304,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="4" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,14 +1351,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,15 +1366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,31 +1379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,14 +1412,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,13 +1458,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,31 +1481,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,13 +1589,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,85 +1643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,37 +1661,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,6 +1696,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1400,37 +1742,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,29 +1782,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,141 +1817,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1984,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2971,16 +3295,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="11.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="17.3047619047619" customWidth="1"/>
     <col min="11" max="11" width="12.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2999,8 +3324,11 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3014,11 +3342,11 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J2" t="s">
+        <v>230</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -3032,7 +3360,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3046,11 +3374,11 @@
       <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J3" t="s">
+        <v>233</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -3063,8 +3391,11 @@
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3078,11 +3409,11 @@
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="J4" t="s">
+        <v>236</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -3095,8 +3426,11 @@
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3110,12 +3444,10 @@
       <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
+      <c r="K5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="6"/>
       <c r="N5">
         <v>4</v>
       </c>
@@ -3127,8 +3459,11 @@
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3142,12 +3477,10 @@
       <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2</v>
-      </c>
+      <c r="K6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="N6">
         <v>5</v>
       </c>
@@ -3159,8 +3492,11 @@
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -3174,12 +3510,10 @@
       <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="5">
-        <v>3</v>
-      </c>
+      <c r="K7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="N7">
         <v>6</v>
       </c>
@@ -3187,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3197,8 +3531,11 @@
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -3212,12 +3549,10 @@
       <c r="I8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="5">
-        <v>4</v>
-      </c>
+      <c r="K8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="6"/>
       <c r="N8">
         <v>7</v>
       </c>
@@ -3225,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:18">
@@ -3235,8 +3570,11 @@
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3250,11 +3588,12 @@
       <c r="I9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
-        <v>238</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
+      <c r="K9" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" t="s">
+        <v>252</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -3263,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3273,6 +3612,9 @@
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
@@ -3288,11 +3630,17 @@
       <c r="I10" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
       <c r="K10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="5">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>254</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -3301,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3311,6 +3659,9 @@
       <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
       <c r="D11" t="s">
         <v>64</v>
       </c>
@@ -3326,11 +3677,17 @@
       <c r="I11" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="J11" t="s">
+        <v>256</v>
+      </c>
       <c r="K11" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" s="5">
-        <v>7</v>
+        <v>257</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -3339,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3349,6 +3706,9 @@
       <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
       <c r="D12" t="s">
         <v>183</v>
       </c>
@@ -3364,11 +3724,17 @@
       <c r="I12" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="J12" t="s">
+        <v>260</v>
+      </c>
       <c r="K12" t="s">
-        <v>244</v>
-      </c>
-      <c r="L12" s="5">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>261</v>
       </c>
       <c r="N12">
         <v>11</v>
@@ -3377,7 +3743,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:14">
@@ -3402,11 +3768,17 @@
       <c r="I13" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="J13" t="s">
+        <v>263</v>
+      </c>
       <c r="K13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="5">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>264</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -3431,11 +3803,17 @@
       <c r="I14" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="J14" t="s">
+        <v>265</v>
+      </c>
       <c r="K14" t="s">
-        <v>247</v>
-      </c>
-      <c r="L14" s="5">
-        <v>10</v>
+        <v>266</v>
+      </c>
+      <c r="L14" s="6">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>267</v>
       </c>
       <c r="N14">
         <v>13</v>
@@ -3460,11 +3838,17 @@
       <c r="I15" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="J15" t="s">
+        <v>268</v>
+      </c>
       <c r="K15" t="s">
-        <v>248</v>
-      </c>
-      <c r="L15" s="5">
-        <v>11</v>
+        <v>269</v>
+      </c>
+      <c r="L15" s="6">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>270</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -3492,11 +3876,17 @@
       <c r="I16" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="J16" t="s">
+        <v>271</v>
+      </c>
       <c r="K16" t="s">
-        <v>249</v>
-      </c>
-      <c r="L16" s="5">
-        <v>12</v>
+        <v>272</v>
+      </c>
+      <c r="L16" s="6">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>273</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -3524,17 +3914,20 @@
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="J17" t="s">
+        <v>274</v>
+      </c>
       <c r="K17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13</v>
+        <v>275</v>
+      </c>
+      <c r="L17" s="6">
+        <v>8</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3542,7 +3935,7 @@
         <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -3553,26 +3946,38 @@
       <c r="H18">
         <v>17</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>252</v>
+      <c r="I18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J18" t="s">
+        <v>278</v>
       </c>
       <c r="K18" t="s">
-        <v>253</v>
-      </c>
-      <c r="L18" s="5">
-        <v>14</v>
+        <v>279</v>
+      </c>
+      <c r="L18" s="6">
+        <v>9</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
@@ -3585,26 +3990,41 @@
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="J19" t="s">
+        <v>281</v>
+      </c>
       <c r="K19" t="s">
-        <v>254</v>
-      </c>
-      <c r="L19" s="5">
-        <v>15</v>
+        <v>282</v>
+      </c>
+      <c r="L19" s="6">
+        <v>10</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="Q19">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>283</v>
+      </c>
+      <c r="T19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="D20" t="s">
         <v>106</v>
       </c>
@@ -3617,26 +4037,38 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="J20" t="s">
+        <v>284</v>
+      </c>
       <c r="K20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L20" s="5">
-        <v>16</v>
+        <v>285</v>
+      </c>
+      <c r="L20" s="6">
+        <v>11</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:14">
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
       <c r="D21" t="s">
         <v>111</v>
       </c>
@@ -3649,26 +4081,38 @@
       <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="J21" t="s">
+        <v>287</v>
+      </c>
       <c r="K21" t="s">
-        <v>256</v>
-      </c>
-      <c r="L21" s="5">
-        <v>17</v>
+        <v>288</v>
+      </c>
+      <c r="L21" s="6">
+        <v>12</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
       <c r="D22" t="s">
         <v>115</v>
       </c>
@@ -3681,17 +4125,26 @@
       <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="J22" t="s">
+        <v>290</v>
+      </c>
       <c r="K22" t="s">
-        <v>257</v>
-      </c>
-      <c r="L22" s="5">
-        <v>18</v>
+        <v>291</v>
+      </c>
+      <c r="L22" s="6">
+        <v>13</v>
       </c>
       <c r="N22">
         <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3701,6 +4154,9 @@
       <c r="B23" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23" t="s">
         <v>121</v>
       </c>
@@ -3713,14 +4169,17 @@
       <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="J23" t="s">
+        <v>293</v>
+      </c>
       <c r="K23" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="5">
-        <v>19</v>
+        <v>294</v>
+      </c>
+      <c r="L23" s="6">
+        <v>14</v>
       </c>
       <c r="N23">
         <v>22</v>
@@ -3733,6 +4192,9 @@
       <c r="B24" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
       <c r="D24" t="s">
         <v>125</v>
       </c>
@@ -3745,14 +4207,17 @@
       <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="J24" t="s">
+        <v>295</v>
+      </c>
       <c r="K24" t="s">
-        <v>258</v>
-      </c>
-      <c r="L24" s="5">
-        <v>20</v>
+        <v>296</v>
+      </c>
+      <c r="L24" s="6">
+        <v>15</v>
       </c>
       <c r="N24">
         <v>23</v>
@@ -3765,6 +4230,9 @@
       <c r="B25" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
       <c r="D25" t="s">
         <v>130</v>
       </c>
@@ -3777,14 +4245,17 @@
       <c r="H25">
         <v>24</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="J25" t="s">
+        <v>297</v>
+      </c>
       <c r="K25" t="s">
-        <v>259</v>
-      </c>
-      <c r="L25" s="5">
-        <v>21</v>
+        <v>298</v>
+      </c>
+      <c r="L25" s="6">
+        <v>16</v>
       </c>
       <c r="N25">
         <v>24</v>
@@ -3797,6 +4268,9 @@
       <c r="B26" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
       <c r="D26" t="s">
         <v>134</v>
       </c>
@@ -3812,11 +4286,14 @@
       <c r="I26" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="J26" t="s">
+        <v>299</v>
+      </c>
       <c r="K26" t="s">
-        <v>260</v>
-      </c>
-      <c r="L26" s="5">
-        <v>22</v>
+        <v>300</v>
+      </c>
+      <c r="L26" s="6">
+        <v>17</v>
       </c>
       <c r="N26" s="1">
         <v>25</v>
@@ -3829,6 +4306,9 @@
       <c r="B27" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
       <c r="D27" t="s">
         <v>138</v>
       </c>
@@ -3844,11 +4324,14 @@
       <c r="I27" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="J27" t="s">
+        <v>301</v>
+      </c>
       <c r="K27" t="s">
-        <v>261</v>
-      </c>
-      <c r="L27" s="5">
-        <v>23</v>
+        <v>302</v>
+      </c>
+      <c r="L27" s="6">
+        <v>18</v>
       </c>
       <c r="N27" s="1">
         <v>26</v>
@@ -3861,6 +4344,9 @@
       <c r="B28" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
       <c r="D28" t="s">
         <v>147</v>
       </c>
@@ -3876,11 +4362,14 @@
       <c r="I28" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="J28" t="s">
+        <v>303</v>
+      </c>
       <c r="K28" t="s">
-        <v>262</v>
-      </c>
-      <c r="L28" s="5">
-        <v>24</v>
+        <v>136</v>
+      </c>
+      <c r="L28" s="6">
+        <v>19</v>
       </c>
       <c r="N28" s="1">
         <v>27</v>
@@ -3893,6 +4382,9 @@
       <c r="B29" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
       <c r="D29" t="s">
         <v>152</v>
       </c>
@@ -3908,11 +4400,14 @@
       <c r="I29" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="J29" t="s">
+        <v>304</v>
+      </c>
       <c r="K29" t="s">
-        <v>263</v>
-      </c>
-      <c r="L29" s="5">
-        <v>25</v>
+        <v>305</v>
+      </c>
+      <c r="L29" s="6">
+        <v>20</v>
       </c>
       <c r="N29" s="1">
         <v>28</v>
@@ -3925,6 +4420,9 @@
       <c r="B30" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
       <c r="D30" t="s">
         <v>156</v>
       </c>
@@ -3940,11 +4438,14 @@
       <c r="I30" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="J30" t="s">
+        <v>306</v>
+      </c>
       <c r="K30" t="s">
-        <v>264</v>
-      </c>
-      <c r="L30" s="5">
-        <v>26</v>
+        <v>307</v>
+      </c>
+      <c r="L30" s="6">
+        <v>21</v>
       </c>
       <c r="N30" s="1">
         <v>29</v>
@@ -3955,10 +4456,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>265</v>
+        <v>308</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -3972,25 +4476,31 @@
       <c r="I31" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="J31" t="s">
+        <v>310</v>
+      </c>
       <c r="K31" t="s">
-        <v>267</v>
-      </c>
-      <c r="L31" s="5">
-        <v>27</v>
+        <v>311</v>
+      </c>
+      <c r="L31" s="6">
+        <v>22</v>
       </c>
       <c r="N31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:14">
+    <row r="32" customFormat="1" ht="16.5" spans="1:18">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>268</v>
+        <v>312</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -4004,14 +4514,20 @@
       <c r="I32" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="J32" t="s">
+        <v>314</v>
+      </c>
       <c r="K32" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" s="5">
-        <v>28</v>
+        <v>315</v>
+      </c>
+      <c r="L32" s="6">
+        <v>23</v>
       </c>
       <c r="N32" s="1">
         <v>31</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4019,10 +4535,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>271</v>
+        <v>317</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -4036,11 +4555,14 @@
       <c r="I33" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="J33" t="s">
+        <v>319</v>
+      </c>
       <c r="K33" t="s">
-        <v>273</v>
-      </c>
-      <c r="L33" s="5">
-        <v>29</v>
+        <v>315</v>
+      </c>
+      <c r="L33" s="6">
+        <v>24</v>
       </c>
       <c r="N33" s="1">
         <v>32</v>
@@ -4051,10 +4573,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>274</v>
+        <v>320</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -4066,13 +4591,16 @@
         <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>276</v>
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
-      </c>
-      <c r="L34">
-        <v>30</v>
+        <v>252</v>
+      </c>
+      <c r="L34" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:12">
@@ -4080,10 +4608,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>278</v>
+        <v>324</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -4092,13 +4623,16 @@
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>280</v>
+        <v>326</v>
+      </c>
+      <c r="J35" t="s">
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
-      </c>
-      <c r="L35">
-        <v>31</v>
+        <v>254</v>
+      </c>
+      <c r="L35" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:12">
@@ -4106,10 +4640,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>282</v>
+        <v>328</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -4118,24 +4655,30 @@
         <v>21</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K36" t="s">
-        <v>281</v>
-      </c>
-      <c r="L36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>285</v>
+        <v>332</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -4144,18 +4687,30 @@
         <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:9">
+        <v>334</v>
+      </c>
+      <c r="J37" t="s">
+        <v>335</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>288</v>
+        <v>336</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -4164,15 +4719,27 @@
         <v>23</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:9">
+        <v>338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>291</v>
+        <v>340</v>
+      </c>
+      <c r="D39" t="s">
+        <v>341</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -4181,29 +4748,62 @@
         <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:9">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>293</v>
+        <v>344</v>
+      </c>
+      <c r="D40" t="s">
+        <v>345</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:9">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>270</v>
+      </c>
+      <c r="L40" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>295</v>
+        <v>348</v>
+      </c>
+      <c r="D41" t="s">
+        <v>349</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>296</v>
+        <v>350</v>
+      </c>
+      <c r="J41" t="s">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41" s="6">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4211,198 +4811,134 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>352</v>
+      </c>
+      <c r="C42" t="s">
+        <v>353</v>
       </c>
       <c r="D42" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:11">
+    <row r="43" customFormat="1" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
-      </c>
-      <c r="C43"/>
+        <v>355</v>
+      </c>
       <c r="D43" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="I43" t="s">
-        <v>301</v>
-      </c>
-      <c r="K43" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:11">
+    </row>
+    <row r="44" customFormat="1" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
+        <v>357</v>
+      </c>
+      <c r="D44" t="s">
+        <v>358</v>
+      </c>
       <c r="F44">
         <v>3</v>
-      </c>
-      <c r="I44" t="s">
-        <v>301</v>
-      </c>
-      <c r="K44" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="45" spans="6:20">
       <c r="F45">
         <v>4</v>
       </c>
-      <c r="I45" t="s">
-        <v>301</v>
-      </c>
-      <c r="K45" t="s">
-        <v>302</v>
-      </c>
       <c r="P45" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="6:20">
       <c r="F46">
         <v>5</v>
       </c>
-      <c r="I46" t="s">
-        <v>301</v>
-      </c>
-      <c r="K46" t="s">
-        <v>302</v>
-      </c>
       <c r="P46" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q46">
         <v>0.2</v>
       </c>
       <c r="R46" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="S46" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="T46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="6:11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
       <c r="F47">
         <v>6</v>
       </c>
-      <c r="I47" t="s">
-        <v>301</v>
-      </c>
-      <c r="K47" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="6:11">
+    </row>
+    <row r="48" spans="6:6">
       <c r="F48">
         <v>7</v>
       </c>
-      <c r="I48" t="s">
-        <v>301</v>
-      </c>
-      <c r="K48" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11">
+    </row>
+    <row r="49" spans="6:14">
       <c r="F49">
         <v>8</v>
       </c>
-      <c r="I49" t="s">
-        <v>301</v>
-      </c>
-      <c r="K49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11">
-      <c r="I50" t="s">
-        <v>301</v>
-      </c>
-      <c r="K50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11">
-      <c r="I51" t="s">
-        <v>301</v>
-      </c>
-      <c r="K51" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11">
-      <c r="I52" t="s">
-        <v>301</v>
-      </c>
-      <c r="K52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11">
-      <c r="I53" t="s">
-        <v>301</v>
-      </c>
-      <c r="K53" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
+      <c r="N49" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="D54" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="F54" t="s">
-        <v>313</v>
-      </c>
-      <c r="I54" t="s">
-        <v>301</v>
-      </c>
-      <c r="K54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -4410,19 +4946,13 @@
       <c r="F55">
         <v>4</v>
       </c>
-      <c r="I55" t="s">
-        <v>301</v>
-      </c>
-      <c r="K55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -4431,18 +4961,18 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>301</v>
-      </c>
-      <c r="K56" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
+        <v>375</v>
+      </c>
+      <c r="J56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="E57">
         <v>24</v>
@@ -4451,15 +4981,15 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
-      </c>
-      <c r="K57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="4:11">
+        <v>379</v>
+      </c>
+      <c r="J57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10">
       <c r="D58" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="E58">
         <v>30</v>
@@ -4468,66 +4998,145 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>301</v>
-      </c>
-      <c r="K58" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11">
+        <v>382</v>
+      </c>
+      <c r="J58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10">
       <c r="I59" t="s">
-        <v>301</v>
-      </c>
-      <c r="K59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11">
+        <v>384</v>
+      </c>
+      <c r="J59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
       <c r="I60" t="s">
-        <v>301</v>
-      </c>
-      <c r="K60" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10">
       <c r="I61" t="s">
-        <v>301</v>
-      </c>
-      <c r="K61" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11">
+        <v>388</v>
+      </c>
+      <c r="J61" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10">
       <c r="I62" t="s">
-        <v>301</v>
-      </c>
-      <c r="K62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11">
+        <v>390</v>
+      </c>
+      <c r="J62" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10">
       <c r="I63" t="s">
-        <v>301</v>
-      </c>
-      <c r="K63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="9:11">
+        <v>392</v>
+      </c>
+      <c r="J63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10">
       <c r="I64" t="s">
-        <v>301</v>
-      </c>
-      <c r="K64" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="9:11">
+        <v>394</v>
+      </c>
+      <c r="J64" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10">
       <c r="I65" t="s">
-        <v>301</v>
-      </c>
-      <c r="K65" t="s">
-        <v>302</v>
+        <v>396</v>
+      </c>
+      <c r="J65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10">
+      <c r="I66" t="s">
+        <v>398</v>
+      </c>
+      <c r="J66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10">
+      <c r="I67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10">
+      <c r="I68" t="s">
+        <v>402</v>
+      </c>
+      <c r="J68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/BkVina note.xlsx
+++ b/BkVina note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15540" windowHeight="6705"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Máy 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="404">
   <si>
     <t>INPUT</t>
   </si>
@@ -480,6 +480,9 @@
     <t>Y26</t>
   </si>
   <si>
+    <t>MR-Speed</t>
+  </si>
+  <si>
     <t>STEP-E3</t>
   </si>
   <si>
@@ -576,6 +579,12 @@
     <t>STEP-D3</t>
   </si>
   <si>
+    <t>x35</t>
+  </si>
+  <si>
+    <t>MR-L1</t>
+  </si>
+  <si>
     <t>Y35</t>
   </si>
   <si>
@@ -585,6 +594,12 @@
     <t>STEP-D4</t>
   </si>
   <si>
+    <t>x36</t>
+  </si>
+  <si>
+    <t>MR-R1</t>
+  </si>
+  <si>
     <t>Y36</t>
   </si>
   <si>
@@ -693,12 +708,24 @@
     <t>RUN1T</t>
   </si>
   <si>
+    <t>n03 = 1</t>
+  </si>
+  <si>
     <t>RUN1N</t>
   </si>
   <si>
+    <t>n21 = 50</t>
+  </si>
+  <si>
     <t>RUN2T</t>
   </si>
   <si>
+    <t>n22 = 20</t>
+  </si>
+  <si>
+    <t>s3 = 1</t>
+  </si>
+  <si>
     <t>RUN2N</t>
   </si>
   <si>
@@ -786,208 +813,148 @@
     <t>Nút nhấn reset có đèn MF2E11Q4</t>
   </si>
   <si>
+    <t>MR-SPEED</t>
+  </si>
+  <si>
+    <t>MQ-1</t>
+  </si>
+  <si>
+    <t>Nút nhấn right/left có đèn MF2E11Q4</t>
+  </si>
+  <si>
+    <t>MQ-2</t>
+  </si>
+  <si>
+    <t>Nút nhấn start/stop bơm dầu có đèn MF2E11Q5</t>
+  </si>
+  <si>
     <t>OPERATION</t>
   </si>
   <si>
-    <t>OPERAGE</t>
-  </si>
-  <si>
-    <t>MQ-1</t>
-  </si>
-  <si>
-    <t>Nút nhấn right/left có đèn MF2E11Q4</t>
+    <t>MXDT-1</t>
   </si>
   <si>
     <t>RelayXLKC1</t>
   </si>
   <si>
-    <t>MQ-2</t>
-  </si>
-  <si>
-    <t>Nút nhấn start/stop bơm dầu có đèn MF2E11Q5</t>
+    <t>MXDT-2</t>
   </si>
   <si>
     <t>RelayXLC2</t>
   </si>
   <si>
-    <t>MXDT-1</t>
+    <t>MXDP-1</t>
   </si>
   <si>
     <t>RelayXLD3_1</t>
   </si>
   <si>
-    <t>XLD3-1</t>
-  </si>
-  <si>
-    <t>MXDT-2</t>
+    <t>MXDP-2</t>
   </si>
   <si>
     <t>RelayXLD3_2</t>
   </si>
   <si>
-    <t>XLD3-2</t>
-  </si>
-  <si>
-    <t>MXDP-1</t>
+    <t>ON/OFF P</t>
+  </si>
+  <si>
+    <t>Y20</t>
   </si>
   <si>
     <t>RelayXLX4_1</t>
   </si>
   <si>
-    <t>XLX4-1</t>
-  </si>
-  <si>
-    <t>MXDP-2</t>
+    <t>m</t>
   </si>
   <si>
     <t>RelayXLX4_2</t>
   </si>
   <si>
-    <t>XLX4-2</t>
-  </si>
-  <si>
-    <t>ON/OFF P</t>
-  </si>
-  <si>
-    <t>Y20</t>
+    <t>xilanh in</t>
   </si>
   <si>
     <t>RelayXLX5_1</t>
   </si>
   <si>
-    <t>XLX5-1</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>encoder</t>
   </si>
   <si>
     <t>RelayXLX5_2</t>
   </si>
   <si>
-    <t>XLX5-2</t>
-  </si>
-  <si>
-    <t>xilanh in</t>
+    <t>pickup</t>
   </si>
   <si>
     <t>RelayXLD6_1</t>
   </si>
   <si>
-    <t>XLD6-1</t>
-  </si>
-  <si>
-    <t>encoder</t>
-  </si>
-  <si>
-    <t>RelayXLD6_2</t>
-  </si>
-  <si>
-    <t>XLD6-2</t>
-  </si>
-  <si>
-    <t>pickup</t>
+    <t>24v</t>
+  </si>
+  <si>
+    <t>RelayLubOil</t>
   </si>
   <si>
     <t>RelayXLTT</t>
   </si>
   <si>
-    <t>XLTT</t>
-  </si>
-  <si>
-    <t>24v</t>
-  </si>
-  <si>
     <t>RelayXLTP</t>
   </si>
   <si>
-    <t>XLTP</t>
-  </si>
-  <si>
     <t>RelayXLDT</t>
   </si>
   <si>
-    <t>XLDT</t>
-  </si>
-  <si>
     <t>RelayXLDP</t>
   </si>
   <si>
-    <t>XLDP</t>
-  </si>
-  <si>
     <t>RelayXLKDT</t>
   </si>
   <si>
-    <t>XLKDT</t>
-  </si>
-  <si>
     <t>RelayXLKDP</t>
   </si>
   <si>
-    <t>XLKDP</t>
-  </si>
-  <si>
     <t>RelayTT</t>
   </si>
   <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>XLTT-I</t>
+  </si>
+  <si>
     <t>RelayMR_1</t>
   </si>
   <si>
-    <t>MR-1</t>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>XLTP-I</t>
   </si>
   <si>
     <t>RelayMR_2</t>
   </si>
   <si>
-    <t>MR-2</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>XLTT-O</t>
+    <t>cái máy đang làm này tốc độ chạy của mấy cụm xoắn phụ thuộc vào áp lực dầu, a ghĩ nên dùng 1 cụm valve ổn áp</t>
+  </si>
+  <si>
+    <t>X37</t>
+  </si>
+  <si>
+    <t>XLKDT-I</t>
   </si>
   <si>
     <t>RelayMXC_1</t>
   </si>
   <si>
-    <t>Oil pump</t>
-  </si>
-  <si>
-    <t>X36</t>
-  </si>
-  <si>
-    <t>XLTP-O</t>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>XLKDP-I</t>
+  </si>
+  <si>
+    <t>Y40</t>
   </si>
   <si>
     <t>RelayMXC_2</t>
-  </si>
-  <si>
-    <t>oil valve</t>
-  </si>
-  <si>
-    <t>cái máy đang làm này tốc độ chạy của mấy cụm xoắn phụ thuộc vào áp lực dầu, a ghĩ nên dùng 1 cụm valve ổn áp</t>
-  </si>
-  <si>
-    <t>X37</t>
-  </si>
-  <si>
-    <t>XLKDT-O</t>
-  </si>
-  <si>
-    <t>RelayMQ_1</t>
-  </si>
-  <si>
-    <t>X40</t>
-  </si>
-  <si>
-    <t>XLKDP-O</t>
-  </si>
-  <si>
-    <t>Y40</t>
-  </si>
-  <si>
-    <t>RelayMQ_2</t>
   </si>
   <si>
     <t>X41</t>
@@ -1268,9 +1235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -1336,14 +1303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,7 +1311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,15 +1332,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,9 +1350,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1411,10 +1401,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1426,16 +1416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,34 +1438,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1499,7 +1460,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,7 +1592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,13 +1610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,121 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,19 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,6 +1651,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1714,26 +1693,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,55 +1751,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,143 +1772,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2308,13 +2261,14 @@
   <sheetPr/>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="11.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
   </cols>
@@ -2904,8 +2858,11 @@
       <c r="E24" t="s">
         <v>153</v>
       </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -2928,16 +2885,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -2957,94 +2914,94 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
         <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -3052,69 +3009,81 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="5:8">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="7:13">
       <c r="G34" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L34" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M34">
         <v>337</v>
@@ -3122,23 +3091,23 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="7:8">
       <c r="G36" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3146,27 +3115,27 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3174,13 +3143,13 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3188,93 +3157,108 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="G46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>231</v>
+      </c>
+      <c r="H47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3282,7 +3266,7 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3297,8 +3281,8 @@
   <sheetPr/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56:J67"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3325,10 +3309,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3343,10 +3327,10 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -3360,7 +3344,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3375,10 +3359,10 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -3392,7 +3376,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3410,10 +3394,10 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -3427,7 +3411,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -3444,10 +3428,10 @@
       <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L5" s="6"/>
+      <c r="K5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="N5">
         <v>4</v>
       </c>
@@ -3460,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -3477,10 +3461,10 @@
       <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="5"/>
       <c r="N6">
         <v>5</v>
       </c>
@@ -3493,7 +3477,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -3510,10 +3494,10 @@
       <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="5"/>
       <c r="N7">
         <v>6</v>
       </c>
@@ -3521,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3532,10 +3516,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -3549,10 +3533,10 @@
       <c r="I8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="5"/>
       <c r="N8">
         <v>7</v>
       </c>
@@ -3560,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:18">
@@ -3571,10 +3555,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3588,12 +3572,12 @@
       <c r="I9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="5"/>
       <c r="M9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -3602,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3630,17 +3614,11 @@
       <c r="I10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -3649,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3678,16 +3656,14 @@
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>256</v>
-      </c>
-      <c r="K11" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" s="6">
+        <v>265</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" s="5">
         <v>2</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>258</v>
+      <c r="M11" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -3696,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3710,7 +3686,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -3725,16 +3701,14 @@
         <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="6">
+        <v>46</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" s="5">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N12">
         <v>11</v>
@@ -3743,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:14">
@@ -3769,16 +3743,14 @@
         <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>263</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="6">
+        <v>270</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" s="5">
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -3804,16 +3776,14 @@
         <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" t="s">
-        <v>266</v>
-      </c>
-      <c r="L14" s="6">
+        <v>272</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" s="5">
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N14">
         <v>13</v>
@@ -3839,16 +3809,14 @@
         <v>107</v>
       </c>
       <c r="J15" t="s">
-        <v>268</v>
-      </c>
-      <c r="K15" t="s">
-        <v>269</v>
-      </c>
-      <c r="L15" s="6">
+        <v>274</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" s="5">
         <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -3877,16 +3845,14 @@
         <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="6">
+        <v>276</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" s="5">
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -3915,12 +3881,10 @@
         <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" t="s">
-        <v>275</v>
-      </c>
-      <c r="L17" s="6">
+        <v>278</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" s="5">
         <v>8</v>
       </c>
       <c r="N17">
@@ -3935,7 +3899,7 @@
         <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -3946,16 +3910,14 @@
       <c r="H18">
         <v>17</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>277</v>
+      <c r="I18" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="J18" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" t="s">
-        <v>279</v>
-      </c>
-      <c r="L18" s="6">
+        <v>281</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" s="5">
         <v>9</v>
       </c>
       <c r="N18">
@@ -3965,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3990,16 +3952,14 @@
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="8" t="s">
         <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>281</v>
-      </c>
-      <c r="K19" t="s">
-        <v>282</v>
-      </c>
-      <c r="L19" s="6">
+        <v>283</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" s="5">
         <v>10</v>
       </c>
       <c r="N19">
@@ -4009,7 +3969,7 @@
         <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T19">
         <v>24</v>
@@ -4037,16 +3997,14 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="8" t="s">
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>284</v>
-      </c>
-      <c r="K20" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="6">
+      <c r="K20"/>
+      <c r="L20" s="5">
         <v>11</v>
       </c>
       <c r="N20">
@@ -4081,16 +4039,14 @@
       <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="8" t="s">
         <v>135</v>
       </c>
       <c r="J21" t="s">
         <v>287</v>
       </c>
-      <c r="K21" t="s">
-        <v>288</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21"/>
+      <c r="L21" s="5">
         <v>12</v>
       </c>
       <c r="N21">
@@ -4100,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="R21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4125,16 +4081,14 @@
       <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="8" t="s">
         <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
-      </c>
-      <c r="K22" t="s">
-        <v>291</v>
-      </c>
-      <c r="L22" s="6">
+        <v>289</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" s="5">
         <v>13</v>
       </c>
       <c r="N22">
@@ -4144,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4169,16 +4123,14 @@
       <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="8" t="s">
         <v>148</v>
       </c>
       <c r="J23" t="s">
-        <v>293</v>
-      </c>
-      <c r="K23" t="s">
-        <v>294</v>
-      </c>
-      <c r="L23" s="6">
+        <v>291</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" s="5">
         <v>14</v>
       </c>
       <c r="N23">
@@ -4207,16 +4159,14 @@
       <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>295</v>
-      </c>
-      <c r="K24" t="s">
-        <v>296</v>
-      </c>
-      <c r="L24" s="6">
+        <v>292</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" s="5">
         <v>15</v>
       </c>
       <c r="N24">
@@ -4228,7 +4178,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -4245,16 +4195,14 @@
       <c r="H25">
         <v>24</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="8" t="s">
         <v>139</v>
       </c>
       <c r="J25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K25" t="s">
-        <v>298</v>
-      </c>
-      <c r="L25" s="6">
+        <v>293</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" s="5">
         <v>16</v>
       </c>
       <c r="N25">
@@ -4266,7 +4214,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4284,15 +4232,13 @@
         <v>25</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>299</v>
-      </c>
-      <c r="K26" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="6">
+        <v>294</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26" s="5">
         <v>17</v>
       </c>
       <c r="N26" s="1">
@@ -4304,7 +4250,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -4322,15 +4268,13 @@
         <v>26</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
-      </c>
-      <c r="K27" t="s">
-        <v>302</v>
-      </c>
-      <c r="L27" s="6">
+        <v>295</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" s="5">
         <v>18</v>
       </c>
       <c r="N27" s="1">
@@ -4342,7 +4286,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4360,15 +4304,13 @@
         <v>27</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J28" t="s">
-        <v>303</v>
-      </c>
-      <c r="K28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="6">
+        <v>296</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28" s="5">
         <v>19</v>
       </c>
       <c r="N28" s="1">
@@ -4380,7 +4322,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -4398,15 +4340,13 @@
         <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
-      </c>
-      <c r="K29" t="s">
-        <v>305</v>
-      </c>
-      <c r="L29" s="6">
+        <v>297</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" s="5">
         <v>20</v>
       </c>
       <c r="N29" s="1">
@@ -4418,13 +4358,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -4436,15 +4376,13 @@
         <v>29</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>306</v>
-      </c>
-      <c r="K30" t="s">
-        <v>307</v>
-      </c>
-      <c r="L30" s="6">
+        <v>298</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30" s="5">
         <v>21</v>
       </c>
       <c r="N30" s="1">
@@ -4456,13 +4394,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -4474,15 +4412,13 @@
         <v>30</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J31" t="s">
-        <v>310</v>
-      </c>
-      <c r="K31" t="s">
-        <v>311</v>
-      </c>
-      <c r="L31" s="6">
+        <v>301</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" s="5">
         <v>22</v>
       </c>
       <c r="N31" s="1">
@@ -4494,13 +4430,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -4512,22 +4448,20 @@
         <v>31</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
-      </c>
-      <c r="K32" t="s">
-        <v>315</v>
-      </c>
-      <c r="L32" s="6">
+        <v>304</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32" s="5">
         <v>23</v>
       </c>
       <c r="N32" s="1">
         <v>31</v>
       </c>
-      <c r="R32" s="12" t="s">
-        <v>316</v>
+      <c r="R32" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4535,13 +4469,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -4553,15 +4487,13 @@
         <v>32</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
-      </c>
-      <c r="K33" t="s">
-        <v>315</v>
-      </c>
-      <c r="L33" s="6">
+        <v>308</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" s="5">
         <v>24</v>
       </c>
       <c r="N33" s="1">
@@ -4573,13 +4505,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -4591,15 +4523,13 @@
         <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" t="s">
-        <v>252</v>
-      </c>
-      <c r="L34" s="6">
+        <v>312</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34" s="5">
         <v>25</v>
       </c>
     </row>
@@ -4608,13 +4538,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -4623,15 +4553,13 @@
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>327</v>
-      </c>
-      <c r="K35" t="s">
-        <v>254</v>
-      </c>
-      <c r="L35" s="6">
+        <v>316</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35" s="5">
         <v>26</v>
       </c>
     </row>
@@ -4640,13 +4568,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C36">
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -4655,15 +4583,13 @@
         <v>21</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L36" s="6">
+        <v>320</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="5">
         <v>27</v>
       </c>
     </row>
@@ -4672,13 +4598,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C37">
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -4687,15 +4613,13 @@
         <v>22</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
-      </c>
-      <c r="K37" t="s">
-        <v>261</v>
-      </c>
-      <c r="L37" s="6">
+        <v>324</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37" s="5">
         <v>28</v>
       </c>
     </row>
@@ -4704,13 +4628,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -4719,15 +4643,13 @@
         <v>23</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
-      </c>
-      <c r="K38" t="s">
-        <v>264</v>
-      </c>
-      <c r="L38" s="6">
+        <v>328</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38" s="5">
         <v>29</v>
       </c>
     </row>
@@ -4736,10 +4658,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -4748,15 +4670,13 @@
         <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>343</v>
-      </c>
-      <c r="K39" t="s">
-        <v>267</v>
-      </c>
-      <c r="L39" s="6">
+        <v>332</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39" s="5">
         <v>30</v>
       </c>
     </row>
@@ -4765,21 +4685,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
-      </c>
-      <c r="K40" t="s">
-        <v>270</v>
-      </c>
-      <c r="L40" s="6">
+        <v>336</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40" s="5">
         <v>31</v>
       </c>
     </row>
@@ -4788,21 +4706,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
-      </c>
-      <c r="K41" t="s">
-        <v>273</v>
-      </c>
-      <c r="L41" s="6">
+        <v>340</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41" s="5">
         <v>32</v>
       </c>
     </row>
@@ -4811,13 +4727,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4828,10 +4744,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -4842,10 +4758,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -4856,19 +4772,19 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="6:20">
@@ -4876,19 +4792,19 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q46">
         <v>0.2</v>
       </c>
       <c r="R46" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="S46" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="T46" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="6:6">
@@ -4905,37 +4821,37 @@
       <c r="F49">
         <v>8</v>
       </c>
-      <c r="N49" s="11" t="s">
-        <v>365</v>
+      <c r="N49" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E54" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D55" t="s">
         <v>286</v>
@@ -4949,10 +4865,10 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -4961,18 +4877,18 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J56" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E57">
         <v>24</v>
@@ -4981,15 +4897,15 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J57" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="4:10">
       <c r="D58" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E58">
         <v>30</v>
@@ -4998,145 +4914,145 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J58" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="9:10">
       <c r="I59" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="J59" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="9:10">
       <c r="I60" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="J60" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="9:10">
       <c r="I61" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="J61" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="9:10">
       <c r="I62" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J62" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="9:10">
       <c r="I63" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="J63" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="9:10">
       <c r="I64" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="J64" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="9:10">
       <c r="I65" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J65" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="9:10">
       <c r="I66" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J66" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="9:10">
       <c r="I67" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J67" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="9:10">
       <c r="I68" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="J68" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/BkVina note.xlsx
+++ b/BkVina note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Máy 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="377">
   <si>
     <t>INPUT</t>
   </si>
@@ -735,46 +735,58 @@
     <t>MXC-A-</t>
   </si>
   <si>
-    <t>MXCF1</t>
-  </si>
-  <si>
-    <t>MXC_PLS</t>
+    <t>Y000</t>
+  </si>
+  <si>
+    <t>RelayMXC_1</t>
+  </si>
+  <si>
+    <t>Bit</t>
   </si>
   <si>
     <t>MXC-B-</t>
   </si>
   <si>
-    <t>MXCE1</t>
-  </si>
-  <si>
-    <t>MQ_PLS</t>
+    <t>Y004</t>
+  </si>
+  <si>
+    <t>RelayMXC_2</t>
   </si>
   <si>
     <t>M8052</t>
   </si>
   <si>
-    <t>MXCD1</t>
-  </si>
-  <si>
-    <t>MXDT_PLS</t>
+    <t>Y001</t>
+  </si>
+  <si>
+    <t>RelayMQ_1</t>
   </si>
   <si>
     <t>M8053</t>
   </si>
   <si>
-    <t>MXDP_PLS</t>
+    <t>Y005</t>
+  </si>
+  <si>
+    <t>RelayMQ_2</t>
   </si>
   <si>
     <t>M8054</t>
   </si>
   <si>
-    <t>MXC_DIR</t>
+    <t>Y002</t>
+  </si>
+  <si>
+    <t>RelayMXDT_1</t>
   </si>
   <si>
     <t>M8055</t>
   </si>
   <si>
-    <t>MQ_DIR</t>
+    <t>Y006</t>
+  </si>
+  <si>
+    <t>RelayMXDT_2</t>
   </si>
   <si>
     <t>HMI PI3102i</t>
@@ -786,7 +798,10 @@
     <t>MXDT-A-</t>
   </si>
   <si>
-    <t>MXDT_DIR</t>
+    <t>Y003</t>
+  </si>
+  <si>
+    <t>RelayMXDP_1</t>
   </si>
   <si>
     <t>Đèn báo pha xW1P-1EQM3R</t>
@@ -798,151 +813,205 @@
     <t>MXDP-A-</t>
   </si>
   <si>
-    <t>MXDP_DIR</t>
-  </si>
-  <si>
-    <t>MXC-1</t>
+    <t>Y007</t>
+  </si>
+  <si>
+    <t>RelayMXDP_2</t>
   </si>
   <si>
     <t>Nút dừng khẩn YW1BV4E11R</t>
   </si>
   <si>
-    <t>MXC-2</t>
+    <t>Y010</t>
+  </si>
+  <si>
+    <t>RelayMQ_R</t>
+  </si>
+  <si>
+    <t>MQ - REV</t>
   </si>
   <si>
     <t>Nút nhấn reset có đèn MF2E11Q4</t>
   </si>
   <si>
-    <t>MR-SPEED</t>
-  </si>
-  <si>
-    <t>MQ-1</t>
+    <t>Y011</t>
+  </si>
+  <si>
+    <t>MR_DSLOW</t>
+  </si>
+  <si>
+    <t>MR - SPEED</t>
   </si>
   <si>
     <t>Nút nhấn right/left có đèn MF2E11Q4</t>
   </si>
   <si>
-    <t>MQ-2</t>
+    <t>Y012</t>
+  </si>
+  <si>
+    <t>RelayMR_1</t>
   </si>
   <si>
     <t>Nút nhấn start/stop bơm dầu có đèn MF2E11Q5</t>
   </si>
   <si>
+    <t>Y013</t>
+  </si>
+  <si>
+    <t>RelayMR_2</t>
+  </si>
+  <si>
+    <t>Y014</t>
+  </si>
+  <si>
+    <t>RelayTT</t>
+  </si>
+  <si>
+    <t>Y015</t>
+  </si>
+  <si>
+    <t>Y016</t>
+  </si>
+  <si>
     <t>OPERATION</t>
   </si>
   <si>
-    <t>MXDT-1</t>
+    <t>Y017</t>
   </si>
   <si>
     <t>RelayXLKC1</t>
   </si>
   <si>
-    <t>MXDT-2</t>
+    <t>ON/OFF P</t>
+  </si>
+  <si>
+    <t>Y020</t>
   </si>
   <si>
     <t>RelayXLC2</t>
   </si>
   <si>
-    <t>MXDP-1</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Y021</t>
   </si>
   <si>
     <t>RelayXLD3_1</t>
   </si>
   <si>
-    <t>MXDP-2</t>
+    <t>xilanh in</t>
+  </si>
+  <si>
+    <t>Y022</t>
   </si>
   <si>
     <t>RelayXLD3_2</t>
   </si>
   <si>
-    <t>ON/OFF P</t>
-  </si>
-  <si>
-    <t>Y20</t>
+    <t>encoder</t>
+  </si>
+  <si>
+    <t>Y023</t>
   </si>
   <si>
     <t>RelayXLX4_1</t>
   </si>
   <si>
-    <t>m</t>
+    <t>pickup</t>
+  </si>
+  <si>
+    <t>Y024</t>
   </si>
   <si>
     <t>RelayXLX4_2</t>
   </si>
   <si>
-    <t>xilanh in</t>
+    <t>24v</t>
+  </si>
+  <si>
+    <t>Y025</t>
   </si>
   <si>
     <t>RelayXLX5_1</t>
   </si>
   <si>
-    <t>encoder</t>
+    <t>Y026</t>
   </si>
   <si>
     <t>RelayXLX5_2</t>
   </si>
   <si>
-    <t>pickup</t>
-  </si>
-  <si>
-    <t>RelayXLD6_1</t>
-  </si>
-  <si>
-    <t>24v</t>
+    <t>Y027</t>
+  </si>
+  <si>
+    <t>RelayXLD6</t>
+  </si>
+  <si>
+    <t>Y030</t>
   </si>
   <si>
     <t>RelayLubOil</t>
   </si>
   <si>
+    <t>Y031</t>
+  </si>
+  <si>
     <t>RelayXLTT</t>
   </si>
   <si>
+    <t>Y032</t>
+  </si>
+  <si>
     <t>RelayXLTP</t>
   </si>
   <si>
+    <t>Y033</t>
+  </si>
+  <si>
     <t>RelayXLDT</t>
   </si>
   <si>
+    <t>Y034</t>
+  </si>
+  <si>
     <t>RelayXLDP</t>
   </si>
   <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>XLTT-I</t>
+  </si>
+  <si>
+    <t>Y035</t>
+  </si>
+  <si>
     <t>RelayXLKDT</t>
   </si>
   <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>XLTP-I</t>
+  </si>
+  <si>
+    <t>Y036</t>
+  </si>
+  <si>
     <t>RelayXLKDP</t>
   </si>
   <si>
-    <t>RelayTT</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>XLTT-I</t>
-  </si>
-  <si>
-    <t>RelayMR_1</t>
-  </si>
-  <si>
-    <t>X36</t>
-  </si>
-  <si>
-    <t>XLTP-I</t>
-  </si>
-  <si>
-    <t>RelayMR_2</t>
-  </si>
-  <si>
-    <t>cái máy đang làm này tốc độ chạy của mấy cụm xoắn phụ thuộc vào áp lực dầu, a ghĩ nên dùng 1 cụm valve ổn áp</t>
-  </si>
-  <si>
     <t>X37</t>
   </si>
   <si>
     <t>XLKDT-I</t>
   </si>
   <si>
-    <t>RelayMXC_1</t>
+    <t>Y037</t>
+  </si>
+  <si>
+    <t>RelayOilP</t>
   </si>
   <si>
     <t>X40</t>
@@ -951,10 +1020,10 @@
     <t>XLKDP-I</t>
   </si>
   <si>
-    <t>Y40</t>
-  </si>
-  <si>
-    <t>RelayMXC_2</t>
+    <t>Y040</t>
+  </si>
+  <si>
+    <t>RelayOilV1</t>
   </si>
   <si>
     <t>X41</t>
@@ -963,10 +1032,10 @@
     <t>XLDT-I</t>
   </si>
   <si>
-    <t>Y41</t>
-  </si>
-  <si>
-    <t>RelayMXDT_1</t>
+    <t>Y041</t>
+  </si>
+  <si>
+    <t>RelayOilV2</t>
   </si>
   <si>
     <t>X42</t>
@@ -975,10 +1044,7 @@
     <t>XLDT-O</t>
   </si>
   <si>
-    <t>Y42</t>
-  </si>
-  <si>
-    <t>RelayMXDT_2</t>
+    <t>Y042</t>
   </si>
   <si>
     <t>X43</t>
@@ -987,10 +1053,7 @@
     <t>XLDP-I</t>
   </si>
   <si>
-    <t>Y43</t>
-  </si>
-  <si>
-    <t>RelayMXDP_1</t>
+    <t>Y043</t>
   </si>
   <si>
     <t>X44</t>
@@ -999,10 +1062,7 @@
     <t>XLDP-O</t>
   </si>
   <si>
-    <t>Y44</t>
-  </si>
-  <si>
-    <t>RelayMXDP_2</t>
+    <t>Y044</t>
   </si>
   <si>
     <t>X45</t>
@@ -1011,10 +1071,7 @@
     <t>OLPump</t>
   </si>
   <si>
-    <t>Y45</t>
-  </si>
-  <si>
-    <t>RelayOilP</t>
+    <t>Y045</t>
   </si>
   <si>
     <t>X46</t>
@@ -1023,10 +1080,7 @@
     <t>MR_L1</t>
   </si>
   <si>
-    <t>Y46</t>
-  </si>
-  <si>
-    <t>RelayOilV1</t>
+    <t>Y046</t>
   </si>
   <si>
     <t>X47</t>
@@ -1035,31 +1089,7 @@
     <t>MR_R1</t>
   </si>
   <si>
-    <t>Y47</t>
-  </si>
-  <si>
-    <t>RelayOilV2</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>FX2N-1HC</t>
-  </si>
-  <si>
-    <t>MQ-A-</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>MQ-B-</t>
-  </si>
-  <si>
-    <t>Z-</t>
-  </si>
-  <si>
-    <t>MQ-Z-</t>
+    <t>Y047</t>
   </si>
   <si>
     <t>SGMAH</t>
@@ -1083,7 +1113,7 @@
     <t>(X000 to X007)</t>
   </si>
   <si>
-    <t>M8170 to M8177 ngắt cho (X000 to X007) set Home</t>
+    <t>M8050 to M8055 ngắt cho (X000 to X005) set Home</t>
   </si>
   <si>
     <t>trang 820 / 966 set high speed counter to interrupt</t>
@@ -1110,124 +1140,13 @@
     <t>proximity</t>
   </si>
   <si>
-    <t>d600</t>
-  </si>
-  <si>
-    <t>d250</t>
-  </si>
-  <si>
     <t>MXDP-EB</t>
   </si>
   <si>
     <t>xilanh limit</t>
   </si>
   <si>
-    <t>d602</t>
-  </si>
-  <si>
-    <t>d252</t>
-  </si>
-  <si>
     <t>relay out</t>
-  </si>
-  <si>
-    <t>d604</t>
-  </si>
-  <si>
-    <t>d254</t>
-  </si>
-  <si>
-    <t>d606</t>
-  </si>
-  <si>
-    <t>d256</t>
-  </si>
-  <si>
-    <t>d608</t>
-  </si>
-  <si>
-    <t>d258</t>
-  </si>
-  <si>
-    <t>d610</t>
-  </si>
-  <si>
-    <t>d260</t>
-  </si>
-  <si>
-    <t>d612</t>
-  </si>
-  <si>
-    <t>d262</t>
-  </si>
-  <si>
-    <t>d614</t>
-  </si>
-  <si>
-    <t>d264</t>
-  </si>
-  <si>
-    <t>d616</t>
-  </si>
-  <si>
-    <t>d266</t>
-  </si>
-  <si>
-    <t>d618</t>
-  </si>
-  <si>
-    <t>d268</t>
-  </si>
-  <si>
-    <t>d620</t>
-  </si>
-  <si>
-    <t>d270</t>
-  </si>
-  <si>
-    <t>d622</t>
-  </si>
-  <si>
-    <t>d272</t>
-  </si>
-  <si>
-    <t>d624</t>
-  </si>
-  <si>
-    <t>d274</t>
-  </si>
-  <si>
-    <t>d626</t>
-  </si>
-  <si>
-    <t>d628</t>
-  </si>
-  <si>
-    <t>d630</t>
-  </si>
-  <si>
-    <t>d632</t>
-  </si>
-  <si>
-    <t>d634</t>
-  </si>
-  <si>
-    <t>d636</t>
-  </si>
-  <si>
-    <t>d638</t>
-  </si>
-  <si>
-    <t>d640</t>
-  </si>
-  <si>
-    <t>d642</t>
-  </si>
-  <si>
-    <t>d644</t>
-  </si>
-  <si>
-    <t>d646</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1159,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,7 +1196,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.25"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.6"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1303,15 +1236,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,8 +1264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,6 +1277,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1357,21 +1313,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,47 +1371,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,13 +1381,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,7 +1465,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,13 +1525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,103 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,25 +1561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,6 +1572,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1665,15 +1604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,15 +1638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1734,15 +1655,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1751,10 +1663,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1772,130 +1693,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1904,13 +1825,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3279,10 +3200,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3301,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3324,19 +3245,23 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="J2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3344,7 +3269,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3356,19 +3281,23 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3376,10 +3305,10 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3391,19 +3320,23 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="J4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:14">
+    <row r="5" customFormat="1" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3411,10 +3344,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3426,17 +3359,23 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5">
+        <v>249</v>
+      </c>
+      <c r="J5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3444,10 +3383,10 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3459,13 +3398,19 @@
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6">
+        <v>252</v>
+      </c>
+      <c r="J6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
@@ -3477,10 +3422,10 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -3492,20 +3437,26 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="N7">
+        <v>255</v>
+      </c>
+      <c r="J7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7">
         <v>6</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3516,10 +3467,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -3531,20 +3482,26 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="N8">
+        <v>260</v>
+      </c>
+      <c r="J8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8">
         <v>7</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:18">
@@ -3555,10 +3512,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3570,23 +3527,25 @@
         <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" t="s">
-        <v>261</v>
-      </c>
-      <c r="N9">
+        <v>265</v>
+      </c>
+      <c r="J9" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9">
         <v>8</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3611,23 +3570,29 @@
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>263</v>
-      </c>
-      <c r="N10">
+      <c r="I10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10">
         <v>9</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3652,27 +3617,29 @@
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
+      <c r="I11" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11" s="5">
-        <v>2</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="N11">
+        <v>273</v>
+      </c>
+      <c r="K11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" t="s">
+        <v>241</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3697,30 +3664,29 @@
       <c r="H12">
         <v>11</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
+      <c r="I12" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12" s="5">
-        <v>3</v>
-      </c>
-      <c r="M12" t="s">
-        <v>268</v>
-      </c>
-      <c r="N12">
+        <v>277</v>
+      </c>
+      <c r="L12" t="s">
+        <v>241</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12">
         <v>11</v>
       </c>
       <c r="Q12">
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:14">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3739,24 +3705,23 @@
       <c r="H13">
         <v>12</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>100</v>
+      <c r="I13" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="J13" t="s">
-        <v>270</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" s="5">
-        <v>4</v>
-      </c>
-      <c r="M13" t="s">
-        <v>271</v>
-      </c>
-      <c r="N13">
+        <v>280</v>
+      </c>
+      <c r="L13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:14">
+    <row r="14" customFormat="1" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3772,24 +3737,23 @@
       <c r="H14">
         <v>13</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>104</v>
+      <c r="I14" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="J14" t="s">
-        <v>272</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" s="5">
-        <v>5</v>
-      </c>
-      <c r="M14" t="s">
-        <v>273</v>
-      </c>
-      <c r="N14">
+        <v>282</v>
+      </c>
+      <c r="L14" t="s">
+        <v>241</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="P14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3805,24 +3769,23 @@
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>107</v>
+      <c r="I15" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="J15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15" s="5">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>275</v>
-      </c>
-      <c r="N15">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3841,24 +3804,23 @@
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>112</v>
+      <c r="I16" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" s="5">
-        <v>7</v>
-      </c>
-      <c r="M16" t="s">
-        <v>277</v>
-      </c>
-      <c r="N16">
+        <v>285</v>
+      </c>
+      <c r="L16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:14">
+    <row r="17" ht="14.25" customHeight="1" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3877,17 +3839,19 @@
       <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>116</v>
+      <c r="I17" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="J17" t="s">
-        <v>278</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17" s="5">
-        <v>8</v>
-      </c>
-      <c r="N17">
+        <v>287</v>
+      </c>
+      <c r="L17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="P17">
         <v>16</v>
       </c>
     </row>
@@ -3899,7 +3863,7 @@
         <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -3910,24 +3874,26 @@
       <c r="H18">
         <v>17</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>280</v>
+      <c r="I18" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="J18" t="s">
-        <v>281</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" s="5">
-        <v>9</v>
-      </c>
-      <c r="N18">
+        <v>290</v>
+      </c>
+      <c r="L18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P18">
         <v>17</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3952,24 +3918,26 @@
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>126</v>
+      <c r="I19" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19" s="5">
-        <v>10</v>
-      </c>
-      <c r="N19">
+        <v>293</v>
+      </c>
+      <c r="L19" t="s">
+        <v>241</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P19">
         <v>18</v>
       </c>
       <c r="Q19">
         <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="T19">
         <v>24</v>
@@ -3997,24 +3965,26 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>131</v>
+      <c r="I20" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="J20" t="s">
-        <v>285</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20" s="5">
-        <v>11</v>
-      </c>
-      <c r="N20">
+        <v>296</v>
+      </c>
+      <c r="L20" t="s">
+        <v>241</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20">
         <v>19</v>
       </c>
       <c r="Q20">
         <v>8</v>
       </c>
       <c r="R20" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:18">
@@ -4039,24 +4009,26 @@
       <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>135</v>
+      <c r="I21" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="J21" t="s">
-        <v>287</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21" s="5">
-        <v>12</v>
-      </c>
-      <c r="N21">
+        <v>299</v>
+      </c>
+      <c r="L21" t="s">
+        <v>241</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P21">
         <v>20</v>
       </c>
       <c r="Q21">
         <v>4</v>
       </c>
       <c r="R21" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4081,27 +4053,29 @@
       <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>122</v>
+      <c r="I22" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22" s="5">
-        <v>13</v>
-      </c>
-      <c r="N22">
+        <v>302</v>
+      </c>
+      <c r="L22" t="s">
+        <v>241</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22">
         <v>21</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4123,21 +4097,23 @@
       <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>148</v>
+      <c r="I23" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" s="5">
-        <v>14</v>
-      </c>
-      <c r="N23">
+        <v>305</v>
+      </c>
+      <c r="L23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4159,21 +4135,23 @@
       <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>153</v>
+      <c r="I24" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
-      </c>
-      <c r="K24"/>
-      <c r="L24" s="5">
-        <v>15</v>
-      </c>
-      <c r="N24">
+        <v>307</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4195,21 +4173,23 @@
       <c r="H25">
         <v>24</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>139</v>
+      <c r="I25" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" s="5">
-        <v>16</v>
-      </c>
-      <c r="N25">
+        <v>309</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4231,21 +4211,23 @@
       <c r="H26">
         <v>25</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>162</v>
+      <c r="I26" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="J26" t="s">
-        <v>294</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26" s="5">
-        <v>17</v>
-      </c>
-      <c r="N26" s="1">
+        <v>311</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="P26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4267,21 +4249,23 @@
       <c r="H27">
         <v>26</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>168</v>
+      <c r="I27" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="J27" t="s">
-        <v>295</v>
-      </c>
-      <c r="K27"/>
-      <c r="L27" s="5">
-        <v>18</v>
-      </c>
-      <c r="N27" s="1">
+        <v>313</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="P27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4303,21 +4287,23 @@
       <c r="H28">
         <v>27</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>175</v>
+      <c r="I28" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="J28" t="s">
-        <v>296</v>
-      </c>
-      <c r="K28"/>
-      <c r="L28" s="5">
-        <v>19</v>
-      </c>
-      <c r="N28" s="1">
+        <v>315</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="P28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:14">
+    <row r="29" customFormat="1" spans="1:16">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4339,21 +4325,23 @@
       <c r="H29">
         <v>28</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>181</v>
+      <c r="I29" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="J29" t="s">
-        <v>297</v>
-      </c>
-      <c r="K29"/>
-      <c r="L29" s="5">
-        <v>20</v>
-      </c>
-      <c r="N29" s="1">
+        <v>317</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:14">
+    <row r="30" customFormat="1" spans="1:16">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4375,32 +4363,34 @@
       <c r="H30">
         <v>29</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>185</v>
+      <c r="I30" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30" s="5">
-        <v>21</v>
-      </c>
-      <c r="N30" s="1">
+        <v>319</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="P30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:14">
+    <row r="31" customFormat="1" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -4411,17 +4401,19 @@
       <c r="H31">
         <v>30</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>189</v>
+      <c r="I31" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
-      </c>
-      <c r="K31"/>
-      <c r="L31" s="5">
-        <v>22</v>
-      </c>
-      <c r="N31" s="1">
+        <v>323</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="P31" s="1">
         <v>30</v>
       </c>
     </row>
@@ -4430,13 +4422,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -4447,35 +4439,35 @@
       <c r="H32">
         <v>31</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>194</v>
+      <c r="I32" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32"/>
-      <c r="L32" s="5">
-        <v>23</v>
-      </c>
-      <c r="N32" s="1">
+        <v>327</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P32" s="1">
         <v>31</v>
       </c>
-      <c r="R32" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -4486,32 +4478,34 @@
       <c r="H33">
         <v>32</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>196</v>
+      <c r="I33" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
-      </c>
-      <c r="K33"/>
-      <c r="L33" s="5">
-        <v>24</v>
-      </c>
-      <c r="N33" s="1">
+        <v>331</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="P33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -4522,29 +4516,31 @@
       <c r="H34">
         <v>33</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>311</v>
+      <c r="I34" t="s">
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:12">
+        <v>335</v>
+      </c>
+      <c r="L34" t="s">
+        <v>241</v>
+      </c>
+      <c r="N34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -4552,15 +4548,20 @@
       <c r="F35">
         <v>20</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>315</v>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>338</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
-      </c>
-      <c r="K35"/>
-      <c r="L35" s="5">
-        <v>26</v>
+        <v>339</v>
+      </c>
+      <c r="L35" t="s">
+        <v>241</v>
+      </c>
+      <c r="N35" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:12">
@@ -4568,13 +4569,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="C36">
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -4582,29 +4583,23 @@
       <c r="F36">
         <v>21</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J36" t="s">
-        <v>320</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="5">
-        <v>27</v>
-      </c>
+      <c r="I36" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="1" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C37">
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -4612,29 +4607,23 @@
       <c r="F37">
         <v>22</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J37" t="s">
-        <v>324</v>
-      </c>
-      <c r="K37"/>
-      <c r="L37" s="5">
-        <v>28</v>
-      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="1" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -4642,26 +4631,20 @@
       <c r="F38">
         <v>23</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J38" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38" s="5">
-        <v>29</v>
-      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="1" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D39" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -4669,192 +4652,110 @@
       <c r="F39">
         <v>24</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J39" t="s">
-        <v>332</v>
-      </c>
-      <c r="K39"/>
-      <c r="L39" s="5">
-        <v>30</v>
-      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="1" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J40" t="s">
-        <v>336</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40" s="5">
-        <v>31</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="1" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J41" t="s">
-        <v>340</v>
-      </c>
-      <c r="K41"/>
-      <c r="L41" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" t="s">
-        <v>342</v>
-      </c>
-      <c r="D42" t="s">
-        <v>343</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:6">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>344</v>
-      </c>
-      <c r="D43" t="s">
-        <v>345</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:6">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>346</v>
-      </c>
-      <c r="D44" t="s">
-        <v>347</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="6:20">
-      <c r="F45">
-        <v>4</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="I41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="45" spans="16:20">
       <c r="P45" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="6:20">
-      <c r="F46">
-        <v>5</v>
-      </c>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="16:20">
       <c r="P46" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q46">
         <v>0.2</v>
       </c>
       <c r="R46" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="S46" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="T46" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="6:14">
-      <c r="F49">
-        <v>8</v>
-      </c>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14">
       <c r="N49" s="9" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E54" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -4863,12 +4764,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -4876,19 +4777,13 @@
       <c r="F56">
         <v>3</v>
       </c>
-      <c r="I56" t="s">
-        <v>364</v>
-      </c>
-      <c r="J56" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E57">
         <v>24</v>
@@ -4896,163 +4791,16 @@
       <c r="F57">
         <v>2</v>
       </c>
-      <c r="I57" t="s">
-        <v>368</v>
-      </c>
-      <c r="J57" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10">
+    </row>
+    <row r="58" spans="4:6">
       <c r="D58" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E58">
         <v>30</v>
       </c>
       <c r="F58">
         <v>2</v>
-      </c>
-      <c r="I58" t="s">
-        <v>371</v>
-      </c>
-      <c r="J58" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="59" spans="9:10">
-      <c r="I59" t="s">
-        <v>373</v>
-      </c>
-      <c r="J59" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="60" spans="9:10">
-      <c r="I60" t="s">
-        <v>375</v>
-      </c>
-      <c r="J60" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="61" spans="9:10">
-      <c r="I61" t="s">
-        <v>377</v>
-      </c>
-      <c r="J61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="9:10">
-      <c r="I62" t="s">
-        <v>379</v>
-      </c>
-      <c r="J62" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="9:10">
-      <c r="I63" t="s">
-        <v>381</v>
-      </c>
-      <c r="J63" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="9:10">
-      <c r="I64" t="s">
-        <v>383</v>
-      </c>
-      <c r="J64" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="9:10">
-      <c r="I65" t="s">
-        <v>385</v>
-      </c>
-      <c r="J65" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="9:10">
-      <c r="I66" t="s">
-        <v>387</v>
-      </c>
-      <c r="J66" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="67" spans="9:10">
-      <c r="I67" t="s">
-        <v>389</v>
-      </c>
-      <c r="J67" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="68" spans="9:10">
-      <c r="I68" t="s">
-        <v>391</v>
-      </c>
-      <c r="J68" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9">
-      <c r="I75" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9">
-      <c r="I76" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9">
-      <c r="I77" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9">
-      <c r="I78" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9">
-      <c r="I79" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
